--- a/20kResults.xlsx
+++ b/20kResults.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\OICE_16_974FA576_32C1D314_3A70\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Documents\AP-Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{60B8C79E-726E-4E64-BFF4-4E43C7600970}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9DD693B8-B2AD-4760-9AFD-B9CCFFC5840E}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{60B8C79E-726E-4E64-BFF4-4E43C7600970}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{31413B9D-0158-40C3-A7CD-EE50AAE8264C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="27600" windowHeight="15030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -129,7 +129,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -984,9 +984,9 @@
       <selection activeCell="W36" sqref="W36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -997,7 +997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>85.316336149999998</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>88.574129339999999</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>85.316336149999998</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>87.488198280000006</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>87.110483650000006</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>87.582623960000006</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>86.449480059999999</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>88.29084039</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>87.252122159999999</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>86.779981849999999</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>88.149195910000003</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>87.440979479999996</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>86.827194689999999</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>86.355054379999999</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>0.67017465799999998</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>85.410767789999994</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>85.269123320000006</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>88.12240869</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>86.355054379999999</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>0.60833490499999998</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>85.269123320000006</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>87.252122159999999</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>0.52945908200000003</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>85.221904519999995</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>85.269123320000006</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>85.930120939999995</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>-2.0212288639999998</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>85.309398169999994</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>2.5170767E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>85.309398169999994</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>1.68595446</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>86.537551879999995</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>5.0341534E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="S22" t="s">
         <v>30</v>
       </c>
@@ -1435,17 +1435,17 @@
         <v>2.0243941639999998</v>
       </c>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="O25" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="V26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="P27" t="s">
         <v>0</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="O28" t="s">
         <v>11</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="O29" t="s">
         <v>9</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>87.657324369999998</v>
       </c>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="O30" t="s">
         <v>12</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>0.45058325999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="O31" t="s">
         <v>14</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="O32" t="s">
         <v>22</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>0.56037895900000001</v>
       </c>
     </row>
-    <row r="33" spans="15:23">
+    <row r="33" spans="15:23" x14ac:dyDescent="0.25">
       <c r="O33" t="s">
         <v>17</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="15:23">
+    <row r="34" spans="15:23" x14ac:dyDescent="0.25">
       <c r="O34" t="s">
         <v>25</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="15:23">
+    <row r="35" spans="15:23" x14ac:dyDescent="0.25">
       <c r="O35" t="s">
         <v>26</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>-6.5825454959999998</v>
       </c>
     </row>
-    <row r="36" spans="15:23">
+    <row r="36" spans="15:23" x14ac:dyDescent="0.25">
       <c r="O36" t="s">
         <v>28</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>4.53893E-8</v>
       </c>
     </row>
-    <row r="37" spans="15:23">
+    <row r="37" spans="15:23" x14ac:dyDescent="0.25">
       <c r="O37" t="s">
         <v>29</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>1.68595446</v>
       </c>
     </row>
-    <row r="38" spans="15:23">
+    <row r="38" spans="15:23" x14ac:dyDescent="0.25">
       <c r="O38" t="s">
         <v>30</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>9.0778700000000005E-8</v>
       </c>
     </row>
-    <row r="39" spans="15:23">
+    <row r="39" spans="15:23" x14ac:dyDescent="0.25">
       <c r="V39" t="s">
         <v>30</v>
       </c>

--- a/20kResults.xlsx
+++ b/20kResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Documents\AP-Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{60B8C79E-726E-4E64-BFF4-4E43C7600970}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{31413B9D-0158-40C3-A7CD-EE50AAE8264C}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{60B8C79E-726E-4E64-BFF4-4E43C7600970}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7FA0ECE1-0C59-4D65-8CCB-16B043D81555}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="27600" windowHeight="15030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="32">
   <si>
     <t>CNN 2D</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>t Critical two-tail</t>
+  </si>
+  <si>
+    <t>Statistics</t>
   </si>
 </sst>
 </file>
@@ -679,6 +682,34 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{72D4F177-A274-43A0-94F6-DC1E44442BD6}" name="Table2" displayName="Table2" ref="J16:P18" totalsRowShown="0">
+  <autoFilter ref="J16:P18" xr:uid="{142ABCC2-18DC-4E28-A5CF-3AF29FD6DB56}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{F7BBB0F0-79A4-4FC1-8339-40510446965D}" name="Source of Variation"/>
+    <tableColumn id="2" xr3:uid="{2F85AE65-DC32-42AC-970E-061BA03C897A}" name="SS"/>
+    <tableColumn id="3" xr3:uid="{8695F0EB-6D93-4623-BCB4-29A292256A63}" name="df"/>
+    <tableColumn id="4" xr3:uid="{D7AB978C-23D0-4502-BC0A-AEEE8E81FB43}" name="MS"/>
+    <tableColumn id="5" xr3:uid="{CE56AD45-6924-40AF-A3EF-551BC08E9D9B}" name="F"/>
+    <tableColumn id="6" xr3:uid="{3A9F9818-6780-4364-941B-BCA9EF26AE6F}" name="P-value"/>
+    <tableColumn id="7" xr3:uid="{270EB05A-9C2E-4C0D-ADA9-E14F27649C1E}" name="F crit"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F519768C-D399-4BBB-B5B7-7735A100734E}" name="Table3" displayName="Table3" ref="V28:X39" totalsRowShown="0">
+  <autoFilter ref="V28:X39" xr:uid="{82718655-9A91-43A5-A24D-DE986E189A70}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{85729DB1-F230-48B6-9E75-A312BA507478}" name="Statistics"/>
+    <tableColumn id="2" xr3:uid="{17A11932-158B-48BD-A294-5ACE13FA3EC9}" name="CNN 2D"/>
+    <tableColumn id="3" xr3:uid="{3DF76C90-E24C-468C-83BE-270FE6CA3EA7}" name="CNN 1D"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium25" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -980,11 +1011,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E26" workbookViewId="0">
-      <selection activeCell="W36" sqref="W36"/>
+    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
+      <selection activeCell="V28" sqref="V28:X39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="15" max="15" width="9.85546875" customWidth="1"/>
+    <col min="22" max="22" width="11" customWidth="1"/>
+    <col min="23" max="24" width="9.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1463,6 +1500,9 @@
       <c r="Q28">
         <v>88.12240869</v>
       </c>
+      <c r="V28" t="s">
+        <v>31</v>
+      </c>
       <c r="W28" t="s">
         <v>0</v>
       </c>
@@ -1635,5 +1675,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>